--- a/medicine/Sexualité et sexologie/No_Nut_November/No_Nut_November.xlsx
+++ b/medicine/Sexualité et sexologie/No_Nut_November/No_Nut_November.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">No Nut November, souvent abrégé en NNN, est un défi d'internet d'abstinence sexuelle au cours du mois de novembre[1]. Il est apparu en 2011 et a gagné en popularité sur les réseaux sociaux pendant et après 2017[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No Nut November, souvent abrégé en NNN, est un défi d'internet d'abstinence sexuelle au cours du mois de novembre. Il est apparu en 2011 et a gagné en popularité sur les réseaux sociaux pendant et après 2017.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien que No Nut November se voulait à l'origine satirique, certains participants affirment que s'abstenir d'éjaculer et de regarder de la pornographie présente des avantages pour la santé[3],[1]. Une entrée du dictionnaire urbain pour No Nut November a été publiée en 2011 et, en 2017, le mouvement a commencé à gagner en popularité sur les réseaux sociaux[2]. Il est associé à la communauté NoFap sur Reddit, qui encourage ses membres à ne pas se masturber[1]. La communauté Reddit du NoNutNovember est passée de 16 500 abonnés en novembre 2018 [4] à 52 000 abonnés en novembre 2019[3].
-Après que certaines personnalités publiques d'extrême droite, dont Paul Joseph Watson, aient promu la campagne, EJ Dickson de Rolling Stone a suggéré que le mouvement avait été coopté par l'extrême droite[3]. Vice a critiqué le défi en 2018 après que ses partisans aient envoyé des menaces à xHamster sur Twitter, affirmant de la même manière qu'il avait été coopté par des personnalités d'extrême droite[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que No Nut November se voulait à l'origine satirique, certains participants affirment que s'abstenir d'éjaculer et de regarder de la pornographie présente des avantages pour la santé,. Une entrée du dictionnaire urbain pour No Nut November a été publiée en 2011 et, en 2017, le mouvement a commencé à gagner en popularité sur les réseaux sociaux. Il est associé à la communauté NoFap sur Reddit, qui encourage ses membres à ne pas se masturber. La communauté Reddit du NoNutNovember est passée de 16 500 abonnés en novembre 2018  à 52 000 abonnés en novembre 2019.
+Après que certaines personnalités publiques d'extrême droite, dont Paul Joseph Watson, aient promu la campagne, EJ Dickson de Rolling Stone a suggéré que le mouvement avait été coopté par l'extrême droite. Vice a critiqué le défi en 2018 après que ses partisans aient envoyé des menaces à xHamster sur Twitter, affirmant de la même manière qu'il avait été coopté par des personnalités d'extrême droite.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Destroy Dick December</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Destroy Dick December est un défi internet connexe au No Nut November qui sert de contrepoint, encourageant les participants à participer à des activités sexuelles telles que les rapports sexuels et la masturbation, après s'en être abstenus au cours du mois précédent. Chaque jour, les participants au défi éjaculent un nombre de fois égal à la place du jour dans le mois, en commençant par une éjaculation le premier décembre et en terminant par trente et un le dernier jour. Au total, cela représente 496 éjaculations en décembre[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Destroy Dick December est un défi internet connexe au No Nut November qui sert de contrepoint, encourageant les participants à participer à des activités sexuelles telles que les rapports sexuels et la masturbation, après s'en être abstenus au cours du mois précédent. Chaque jour, les participants au défi éjaculent un nombre de fois égal à la place du jour dans le mois, en commençant par une éjaculation le premier décembre et en terminant par trente et un le dernier jour. Au total, cela représente 496 éjaculations en décembre.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Recherches sur la santé et les participants</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2023, une étude réunis des recherches afin de comprendre la totalité des effets et des causes du NNN[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2023, une étude réunis des recherches afin de comprendre la totalité des effets et des causes du NNN.
 On y apprend que ce mouvement trouve ses premières racines dans une étude de 2003 qui a été retirée et qui suggère que les taux de testostérone sont plus élevés chez les hommes qui ne se masturbaient pas.
 On y apprend que les communautés liées à ces pratiques ne sont pas bienveillantes et ont une tendance à l'humiliation de ceux qui échouent et une domination de ceux qui s'abstiennent, pouvant ainsi causer des dégâts émotionnels et physiques, particulièrement chez les adolescents.
 Pour conclure, on y lit que la masturbation est bonne pour la santé, qu'elle implique de grands bénéfices pour peu de risques.
